--- a/medicine/Enfance/Aide_sociale_à_l'enfance/Aide_sociale_à_l'enfance.xlsx
+++ b/medicine/Enfance/Aide_sociale_à_l'enfance/Aide_sociale_à_l'enfance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aide_sociale_%C3%A0_l%27enfance</t>
+          <t>Aide_sociale_à_l'enfance</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aide sociale à l'enfance (ASE) est, en France, une politique sociale menée dans le cadre de l'action sociale, définie par l'article L.221-1 du code de l'action sociale et des familles. Ce terme désigne aussi le service proprement dit qui, dans tel ou tel département, met en place cette politique.
 Certains établissements comme les clubs de prévention spécialisée, bien qu'en général gérés par des associations, peuvent être investis d'une mission de service public ASE.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aide_sociale_%C3%A0_l%27enfance</t>
+          <t>Aide_sociale_à_l'enfance</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,16 +525,18 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Avant la Révolution française, la prise en charge des enfants hors du cadre familial n'est pas définie clairement. Leur assistance est laissée au pouvoir seigneurial, aux communautés religieuses voire aux communautés d'habitants. Lors de la Révolution française, le secours aux enfants assistés est laïcisé et est mis à la charge des départements puis, dès leur création en 1800, les préfectures organisent la gestion administrative. Le décret impérial du 19 janvier 1811 crée un service des enfants abandonnés et trouvés dans chaque département. Un hospice par département doit pouvoir les accueillir au moyen d’un « tour ». 
 En 1849, est créée l'administration de l'Assistance Publique, service de l’État déconcentré dans chaque département. Les enfants assistés prennent le nom de "pupilles de l’Assistance publique". A la fin du siècle, ils relèvent principalement de trois institutions :
 la Direction de l’Assistance et de l’Hygiène publiques au ministère de l’Intérieur, instituée en 1886 et dirigée par Henri Monod de 1887 à 1905, puis par Alexandre Mirman et Gustave Mesureur ;
 le Conseil supérieur de l’Assistance publique, créé en 1888, laboratoire où s’élaborent les lois sociales de la Troisième République ;
-le corps de l’inspection des enfants assistés, qui surveille les hospices des enfants trouvés, les inspecteurs étant chargés de visiter le service dans chaque département et de remettre au ministre de l’Intérieur un rapport annuel sur leur fonctionnement[1].
+le corps de l’inspection des enfants assistés, qui surveille les hospices des enfants trouvés, les inspecteurs étant chargés de visiter le service dans chaque département et de remettre au ministre de l’Intérieur un rapport annuel sur leur fonctionnement.
 En 1904, la tutelle des pupilles de la commission administrative des hospices est confiée au Préfet. 
-En 1956, l’Assistance publique devient l’Aide sociale à l’enfance (ASE). Ce service est confié à l’État par le biais de la direction des affaires sanitaires et sociales (DDASS). La loi de décentralisation de 1983 confie ce service aux départements[2].
-À Paris, la gestion des enfants assistés est assurée par l’Administration générale de l’Assistance publique (aujourd’hui AP-HP) jusqu’en 1961. C'est ensuite la préfecture de la Seine qui assure l'aide sociale à l'enfance jusqu'aux lois de décentralisation[3].
+En 1956, l’Assistance publique devient l’Aide sociale à l’enfance (ASE). Ce service est confié à l’État par le biais de la direction des affaires sanitaires et sociales (DDASS). La loi de décentralisation de 1983 confie ce service aux départements.
+À Paris, la gestion des enfants assistés est assurée par l’Administration générale de l’Assistance publique (aujourd’hui AP-HP) jusqu’en 1961. C'est ensuite la préfecture de la Seine qui assure l'aide sociale à l'enfance jusqu'aux lois de décentralisation.
 </t>
         </is>
       </c>
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aide_sociale_%C3%A0_l%27enfance</t>
+          <t>Aide_sociale_à_l'enfance</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aide sociale à l'enfance est, depuis les Lois de décentralisation de 1983, un service du département, placé sous l'autorité du président du Conseil départemental et dont la mission essentielle est de venir en aide aux enfants et à leur famille par des actions de prévention individuelle ou collective, de protection et de lutte contre la maltraitance.
 Lorsqu'un mineur ne peut être maintenu dans sa famille, l'aide sociale à l'enfance est chargée de répondre à l'ensemble de ses besoins. Il est alors accueilli soit dans une famille d'accueil agréée soit dans un établissement d'enfants à caractère social.
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aide_sociale_%C3%A0_l%27enfance</t>
+          <t>Aide_sociale_à_l'enfance</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses missions sont précisément définies par l'article L 221-1 du code de l'action sociale et des familles :
 apporter un soutien matériel, éducatif et psychologique aux mineurs, à leur famille, aux mineurs émancipés et aux majeurs âgés de moins de 21 ans confrontés à des difficultés sociales susceptibles de compromettre gravement leur équilibre
